--- a/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
@@ -1,22 +1,486 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D8DCC441-9E70-40A4-8372-EC4174583D94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>SACANA FGS D19 "Potatoes and other starchy vegetables"</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>SACANA FGS D19a "Potatoes cooked (not deep fried)"</t>
+  </si>
+  <si>
+    <t>D19b</t>
+  </si>
+  <si>
+    <t>SACANA FGS 19b "Potatoes cooked (deep fried)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L47 "Based on potatoes"</t>
+  </si>
+  <si>
+    <t>L47</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>L44c</t>
+  </si>
+  <si>
+    <t>SACANA FGS L44c "Mixed salad"</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>SACANA FGS D18 "Vegetables n.s."</t>
+  </si>
+  <si>
+    <t>SACANA FGS D17 "Pulses n.s."</t>
+  </si>
+  <si>
+    <t>SACANA FGS L44 "Legumes/Vegs n.s."</t>
+  </si>
+  <si>
+    <t>L46a</t>
+  </si>
+  <si>
+    <t>SACANA FGS L46a "Fish and vegetables/legumes"</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>SACANA FGS D20 "Fruits n.s."</t>
+  </si>
+  <si>
+    <t>SACANA FGS D16a "Nuts and seeds"</t>
+  </si>
+  <si>
+    <t>SACANA FGS D16b "Olives and avocados"</t>
+  </si>
+  <si>
+    <t>SACANA FGS D20a "Fresh fruits"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J "Dairy and similar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACANA FGS J37a "Milk plain whole" </t>
+  </si>
+  <si>
+    <t>SACANA FGS J37b "Milk plain reduced fat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS  J37d "Yogurt, probiotic and other fermented milk unsweened, full fat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J37c "Chocolate milk, vanilla milk and sim"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J37e "Yogurt, probiotic and other fermented milk unsweened, low fat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J37f "Sweet Yogurt, probiotic and other fermented milk , full fat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J37g "Sweet Yogurt, probiotic and other fermented milk, low fat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J38a "Cheese low fat and curd (unsweetened)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS  J38 "Cheese n.s."</t>
+  </si>
+  <si>
+    <t>SACANA FGS J39a "milk based ice-creams, desserts, (chocolate) pudding"</t>
+  </si>
+  <si>
+    <t>SACANA FGS J39c "cream"</t>
+  </si>
+  <si>
+    <t>SACANA FGS  K40b "Vegetal milk (soymilk, rice milk etc.)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS A "Cereals and cereal products and starchy snacks ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L43 "Based on Cereals ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L45c "with vegs/potatoes/cereals"</t>
+  </si>
+  <si>
+    <t>SACANA FGS A04 "Pasta (any kind)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS A05 "rice and other cereal grains (not ready to eat) - ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L43a "Pasta/rice/cereals + meat/fish/eggs/cheese"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L43b "Pasta/rice/cereals + legumes /vegetables/potatoes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACANA FGS A01 "bread,rolls and sim. ns" </t>
+  </si>
+  <si>
+    <t>SACANA FGS A01a "bread, crispbread, rusks, roll (refined, fiber &lt;5%)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACANA FGS A01b "bread, crispbread, rusks, roll (wholemeal fiber&gt;5%)" </t>
+  </si>
+  <si>
+    <t>SACANA FGS A02 "breakfast cereals, corn flakes, muesli ns"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACANA FGS G "Meat and meat products" </t>
+  </si>
+  <si>
+    <t>SACANA FGS L42 "based on meat"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L45b "with meat/fish"</t>
+  </si>
+  <si>
+    <t>SACANA FGS G29 "meat (other than poultry)-ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS G30 "poultry-ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS G31 "rabbit and game"</t>
+  </si>
+  <si>
+    <t>SACANA FGS G32 "Offals"</t>
+  </si>
+  <si>
+    <t>SACANA FGS G33 "Processed meat,salami, processed poultry products , meat salad- ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS H"Finfish, shelfish and their products"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L46 "Based on fish"</t>
+  </si>
+  <si>
+    <t>SACANA FGS H34 "Fish and seafood"</t>
+  </si>
+  <si>
+    <t>SACANA FGS H35 "Processed fish products"</t>
+  </si>
+  <si>
+    <t>SACANA FGS  I "Eggs"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L45 "based on eggs"</t>
+  </si>
+  <si>
+    <t>SACANA FGS C12 "vegetable oils ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS C13 "margarines and lipids of mixed origin"</t>
+  </si>
+  <si>
+    <t>SACANA FGS C14 "butter and animal fats"</t>
+  </si>
+  <si>
+    <t>SACANA FGS B "Sugar and sugar products"</t>
+  </si>
+  <si>
+    <t>SACANA FGS B08 "Sugar, honey, jam and sweet sauces or dessert sauces"</t>
+  </si>
+  <si>
+    <t>SACANA FGS B10 "Chocolate ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS B09 "Confectionery (non chocolate)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS B11b "water ice, sorbet (excluding ice cream)"</t>
+  </si>
+  <si>
+    <t>SACANA FGS A06 "Sweet bakery, biscuits, pies (sweet), cakes , sweet fritters and other confectionery"</t>
+  </si>
+  <si>
+    <t>SACANA FGS E22 "water"</t>
+  </si>
+  <si>
+    <t>SACANA FGS E23 "coffee, tea, coffee surrogate, decafe, herbal - ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS E24 "fruit, vegetable juices and smoothies - ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS E25 "Soft and sweetened drinks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACANA FGS F "Alcoholic beverages ns" </t>
+  </si>
+  <si>
+    <t>SACANA FGS F27 "Wine"</t>
+  </si>
+  <si>
+    <t>SACANA FGS F26 "Beer and cider"</t>
+  </si>
+  <si>
+    <t>SACANA FGS C15 "Sauces, dressing and condiments - ns"</t>
+  </si>
+  <si>
+    <t>SACANA FGS E21 "Bouillon - meat/fish/vegetable"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L44a "Soup, veloutè, LIQUID"</t>
+  </si>
+  <si>
+    <t>SACANA FGS L44b "Soup, veloutè, NOT LIQUID"</t>
+  </si>
+  <si>
+    <t>SACANA FGS K40a "Vegetarian burgers, tempeh, tofu, seitan"</t>
+  </si>
+  <si>
+    <t>SACANA FGS K40c "Soy based dessert, cakes,and similar"</t>
+  </si>
+  <si>
+    <t>K40c</t>
+  </si>
+  <si>
+    <t>K40a</t>
+  </si>
+  <si>
+    <t>L44b</t>
+  </si>
+  <si>
+    <t>L44a</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>B11b</t>
+  </si>
+  <si>
+    <t>J39a</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>H34</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>L45b</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A01b</t>
+  </si>
+  <si>
+    <t>A01a</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>L43b</t>
+  </si>
+  <si>
+    <t>L43a</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>L45c</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>K40b</t>
+  </si>
+  <si>
+    <t>J39c</t>
+  </si>
+  <si>
+    <t>J38</t>
+  </si>
+  <si>
+    <t>J38a</t>
+  </si>
+  <si>
+    <t>J37g</t>
+  </si>
+  <si>
+    <t>J37f</t>
+  </si>
+  <si>
+    <t>J37e</t>
+  </si>
+  <si>
+    <t>J37d</t>
+  </si>
+  <si>
+    <t>J37c</t>
+  </si>
+  <si>
+    <t>J37b</t>
+  </si>
+  <si>
+    <t>J37a</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>D16b</t>
+  </si>
+  <si>
+    <t>D16a</t>
+  </si>
+  <si>
+    <t>D20a</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +492,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,22 +524,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +624,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +676,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,33 +869,844 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="92.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -386,28 +1715,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D8DCC441-9E70-40A4-8372-EC4174583D94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0D96819F-89DC-4142-ABC4-651404EFB6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
   <si>
     <t>index</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>decimal</t>
+  </si>
+  <si>
+    <t>L44</t>
   </si>
 </sst>
 </file>
@@ -870,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +977,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1535,10 +1538,10 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
         <v>150</v>
@@ -1546,10 +1549,10 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
         <v>150</v>
@@ -1557,10 +1560,10 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
         <v>150</v>
@@ -1568,10 +1571,10 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
         <v>150</v>
@@ -1579,10 +1582,10 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -1590,10 +1593,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -1601,10 +1604,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -1612,10 +1615,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
         <v>150</v>
@@ -1623,10 +1626,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
         <v>150</v>
@@ -1634,10 +1637,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
         <v>150</v>
@@ -1645,10 +1648,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
         <v>150</v>
@@ -1656,10 +1659,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
         <v>150</v>
@@ -1667,10 +1670,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
         <v>150</v>
@@ -1678,10 +1681,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
         <v>150</v>
@@ -1689,23 +1692,12 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
         <v>150</v>
       </c>
     </row>

--- a/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_IDEFICS_FRANZI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0D96819F-89DC-4142-ABC4-651404EFB6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3AB76D18-2881-4562-982F-271645E34D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="154">
   <si>
     <t>index</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>L44</t>
+  </si>
+  <si>
+    <t>J38c</t>
+  </si>
+  <si>
+    <t>SACANA FGS J38c "Sweetened cheese and curd"</t>
   </si>
 </sst>
 </file>
@@ -873,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,10 +1170,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
         <v>150</v>
@@ -1175,10 +1181,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>150</v>
@@ -1186,10 +1192,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>150</v>
@@ -1197,10 +1203,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>150</v>
@@ -1208,10 +1214,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>150</v>
@@ -1219,10 +1225,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>150</v>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>150</v>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
         <v>150</v>
@@ -1252,10 +1258,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -1263,10 +1269,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>150</v>
@@ -1274,10 +1280,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>150</v>
@@ -1285,10 +1291,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>150</v>
@@ -1296,10 +1302,10 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>150</v>
@@ -1307,10 +1313,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -1318,10 +1324,10 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
         <v>150</v>
@@ -1329,10 +1335,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>150</v>
@@ -1340,10 +1346,10 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>150</v>
@@ -1351,10 +1357,10 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>150</v>
@@ -1362,10 +1368,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>150</v>
@@ -1373,10 +1379,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
         <v>150</v>
@@ -1384,10 +1390,10 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
         <v>150</v>
@@ -1395,10 +1401,10 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
@@ -1406,10 +1412,10 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
         <v>150</v>
@@ -1417,10 +1423,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
         <v>150</v>
@@ -1428,10 +1434,10 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>150</v>
@@ -1439,10 +1445,10 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>150</v>
@@ -1450,10 +1456,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
@@ -1461,10 +1467,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
         <v>150</v>
@@ -1472,10 +1478,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
         <v>150</v>
@@ -1483,10 +1489,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
         <v>150</v>
@@ -1494,10 +1500,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
         <v>150</v>
@@ -1505,10 +1511,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
         <v>150</v>
@@ -1516,10 +1522,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>150</v>
@@ -1527,10 +1533,10 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
         <v>150</v>
@@ -1538,10 +1544,10 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>150</v>
@@ -1549,10 +1555,10 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
         <v>150</v>
@@ -1560,10 +1566,10 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
         <v>150</v>
@@ -1571,10 +1577,10 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
         <v>150</v>
@@ -1582,10 +1588,10 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
@@ -1593,10 +1599,10 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
         <v>150</v>
@@ -1604,10 +1610,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
         <v>150</v>
@@ -1615,10 +1621,10 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
         <v>150</v>
@@ -1626,10 +1632,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
         <v>150</v>
@@ -1637,10 +1643,10 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
         <v>150</v>
@@ -1648,10 +1654,10 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
         <v>150</v>
@@ -1659,10 +1665,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
         <v>150</v>
@@ -1670,10 +1676,10 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
         <v>150</v>
@@ -1681,10 +1687,10 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
         <v>150</v>
@@ -1692,12 +1698,23 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>87</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>86</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>150</v>
       </c>
     </row>
